--- a/开发计划书.xlsx
+++ b/开发计划书.xlsx
@@ -456,7 +456,7 @@
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B14" sqref="A5:B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
